--- a/biology/Origine et évolution du vivant/Gène_du_développement/Gène_du_développement.xlsx
+++ b/biology/Origine et évolution du vivant/Gène_du_développement/Gène_du_développement.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A8ne_du_d%C3%A9veloppement</t>
+          <t>Gène_du_développement</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les gènes du développement sont des gènes qui permettent de construire un organisme spécifique à partir du zygote (ou cellule-œuf).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G%C3%A8ne_du_d%C3%A9veloppement</t>
+          <t>Gène_du_développement</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Types de gènes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>On distingue plusieurs types de gènes du développement :
 Les gènes à effet maternel qui sont transcrits au cours de l'ovogenèse dans l'ovocyte (ou dans des cellules accompagnatrices comme les cellules nourricières chez la drosophile) et dont les produits (ARNm ou protéines) sont stockées dans des régions précises de l'ovocyte. Après la fécondation, ces ARNm ou ces protéines déterminent la mise en place des axes de polarité de l'embryon avant que celui-ci n'exprime son propre génome.
